--- a/results/LCIA/LCIA_results_unique.xlsx
+++ b/results/LCIA/LCIA_results_unique.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="penicillin_cut_off" sheetId="1" r:id="rId1"/>
+    <sheet name="penicillin" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -88,10 +88,10 @@
     <t>'medical connector' (unit, GLO, None)</t>
   </si>
   <si>
-    <t>'packaging of glass vials with penicillin G' (unit, NO, None)</t>
-  </si>
-  <si>
-    <t>'packed box of penicillin' (unit, SE, None)</t>
+    <t>'packaging of a medicine strip' (unit, IN, None)</t>
+  </si>
+  <si>
+    <t>'packaging of glass vials with penicillin G' (unit, IN, None)</t>
   </si>
   <si>
     <t>'production of IV sets' (unit, RER, None)</t>
@@ -546,67 +546,67 @@
         <v>21</v>
       </c>
       <c r="B2">
-        <v>0.008129370946597913</v>
+        <v>0.008129370972636682</v>
       </c>
       <c r="C2">
-        <v>2.265880914974766</v>
+        <v>2.265880905850572</v>
       </c>
       <c r="D2">
-        <v>0.1796234980740203</v>
+        <v>0.1796235017800943</v>
       </c>
       <c r="E2">
-        <v>0.2365080148872587</v>
+        <v>0.2365080194962113</v>
       </c>
       <c r="F2">
-        <v>8.81810928099954</v>
+        <v>8.818109447498323</v>
       </c>
       <c r="G2">
-        <v>0.607237577323148</v>
+        <v>0.6072375731801687</v>
       </c>
       <c r="H2">
-        <v>0.00191580870505319</v>
+        <v>0.001915808705581232</v>
       </c>
       <c r="I2">
-        <v>0.0002082153794370318</v>
+        <v>0.0002082153796619638</v>
       </c>
       <c r="J2">
-        <v>0.4312755021820942</v>
+        <v>0.4312755049598606</v>
       </c>
       <c r="K2">
-        <v>4.107404650228452</v>
+        <v>4.107404694017821</v>
       </c>
       <c r="L2">
-        <v>1.190368319804654</v>
+        <v>1.190368315571515</v>
       </c>
       <c r="M2">
-        <v>0.07253610039159222</v>
+        <v>0.07253607387665503</v>
       </c>
       <c r="N2">
-        <v>0.1359272125924257</v>
+        <v>0.1359272155795362</v>
       </c>
       <c r="O2">
-        <v>1.063829412996879E-06</v>
+        <v>1.063829407047704E-06</v>
       </c>
       <c r="P2">
-        <v>0.003317429373063919</v>
+        <v>0.003317429361948087</v>
       </c>
       <c r="Q2">
-        <v>0.004422417103184031</v>
+        <v>0.004422417093423903</v>
       </c>
       <c r="R2">
-        <v>0.004567556412032115</v>
+        <v>0.004567556400594843</v>
       </c>
       <c r="S2">
-        <v>0.120006413890007</v>
+        <v>0.1200064139215828</v>
       </c>
       <c r="T2">
-        <v>1.08347489348582E-08</v>
+        <v>1.083474868330144E-08</v>
       </c>
       <c r="U2">
-        <v>6.836226451011229E-06</v>
+        <v>6.836226454768461E-06</v>
       </c>
       <c r="V2">
-        <v>0.1609293344719704</v>
+        <v>0.1609293336108306</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -614,67 +614,67 @@
         <v>22</v>
       </c>
       <c r="B3">
-        <v>8.495886385413983E-06</v>
+        <v>8.495885753322082E-06</v>
       </c>
       <c r="C3">
-        <v>0.002608180456505474</v>
+        <v>0.002608180408341938</v>
       </c>
       <c r="D3">
-        <v>0.0001124776810776971</v>
+        <v>0.0001124776274653329</v>
       </c>
       <c r="E3">
-        <v>0.0001498964899722097</v>
+        <v>0.0001498964211865132</v>
       </c>
       <c r="F3">
-        <v>0.005535761477405973</v>
+        <v>0.005535756368384016</v>
       </c>
       <c r="G3">
-        <v>0.0006726734454372519</v>
+        <v>0.0006726734345535404</v>
       </c>
       <c r="H3">
-        <v>4.673999903291062E-05</v>
+        <v>4.673999895845507E-05</v>
       </c>
       <c r="I3">
-        <v>6.403698793071331E-06</v>
+        <v>6.403698790454639E-06</v>
       </c>
       <c r="J3">
-        <v>0.0005457582965295181</v>
+        <v>0.0005457582907107153</v>
       </c>
       <c r="K3">
-        <v>0.003018375963694792</v>
+        <v>0.003018375147082562</v>
       </c>
       <c r="L3">
-        <v>0.001323482364804734</v>
+        <v>0.001323482358200592</v>
       </c>
       <c r="M3">
-        <v>7.170883643898231E-05</v>
+        <v>7.170881685406234E-05</v>
       </c>
       <c r="N3">
-        <v>6.976644947026753E-05</v>
+        <v>6.976644929399706E-05</v>
       </c>
       <c r="O3">
-        <v>1.278067902881362E-09</v>
+        <v>1.278067891200599E-09</v>
       </c>
       <c r="P3">
-        <v>3.521594906984626E-06</v>
+        <v>3.521594694868975E-06</v>
       </c>
       <c r="Q3">
-        <v>4.721177193988884E-06</v>
+        <v>4.721177280217548E-06</v>
       </c>
       <c r="R3">
-        <v>4.894953424167208E-06</v>
+        <v>4.894953505084131E-06</v>
       </c>
       <c r="S3">
-        <v>0.000105797764183221</v>
+        <v>0.0001057977638265564</v>
       </c>
       <c r="T3">
-        <v>4.184198568239802E-11</v>
+        <v>4.184198509764753E-11</v>
       </c>
       <c r="U3">
-        <v>7.383800550836679E-09</v>
+        <v>7.383800166701074E-09</v>
       </c>
       <c r="V3">
-        <v>0.0001580186671464181</v>
+        <v>0.0001580186648482065</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -682,67 +682,67 @@
         <v>23</v>
       </c>
       <c r="B4">
-        <v>0.0005473479032584627</v>
+        <v>0.000547347900190256</v>
       </c>
       <c r="C4">
-        <v>0.111409529666835</v>
+        <v>0.1114095291589801</v>
       </c>
       <c r="D4">
-        <v>0.02532106354709651</v>
+        <v>0.02532106335763596</v>
       </c>
       <c r="E4">
-        <v>0.03746388264708009</v>
+        <v>0.03746388240302675</v>
       </c>
       <c r="F4">
-        <v>0.9136830897269292</v>
+        <v>0.9136830724441687</v>
       </c>
       <c r="G4">
-        <v>0.03223830655487016</v>
+        <v>0.03223830643204972</v>
       </c>
       <c r="H4">
-        <v>6.307477917172906E-05</v>
+        <v>6.307477875489506E-05</v>
       </c>
       <c r="I4">
-        <v>3.560176058673167E-06</v>
+        <v>3.560176036849539E-06</v>
       </c>
       <c r="J4">
-        <v>0.01770091776488492</v>
+        <v>0.01770091755073896</v>
       </c>
       <c r="K4">
-        <v>0.4456233303619903</v>
+        <v>0.4456233274222009</v>
       </c>
       <c r="L4">
-        <v>0.004682703077774361</v>
+        <v>0.00468270300076952</v>
       </c>
       <c r="M4">
-        <v>0.002402292303145884</v>
+        <v>0.002402292252623914</v>
       </c>
       <c r="N4">
-        <v>0.003659590513315623</v>
+        <v>0.003659590466398976</v>
       </c>
       <c r="O4">
-        <v>3.057861389168344E-08</v>
+        <v>3.057861371430306E-08</v>
       </c>
       <c r="P4">
-        <v>0.000236199380503451</v>
+        <v>0.0002361993791231943</v>
       </c>
       <c r="Q4">
-        <v>0.0003303129941352901</v>
+        <v>0.0003303129932298605</v>
       </c>
       <c r="R4">
-        <v>0.0003394339787213913</v>
+        <v>0.0003394339778001359</v>
       </c>
       <c r="S4">
-        <v>0.001089369847826549</v>
+        <v>0.001089369843945439</v>
       </c>
       <c r="T4">
-        <v>5.673200621822794E-10</v>
+        <v>5.673200589091939E-10</v>
       </c>
       <c r="U4">
-        <v>4.149488789859812E-07</v>
+        <v>4.14948876256048E-07</v>
       </c>
       <c r="V4">
-        <v>0.009560071384343515</v>
+        <v>0.009560071346919552</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -750,67 +750,67 @@
         <v>24</v>
       </c>
       <c r="B5">
-        <v>0.003648298852190141</v>
+        <v>0.004127644734704347</v>
       </c>
       <c r="C5">
-        <v>1.549097446101277</v>
+        <v>1.27533890565703</v>
       </c>
       <c r="D5">
-        <v>0.08621821255499282</v>
+        <v>0.05926031948044273</v>
       </c>
       <c r="E5">
-        <v>0.1116120311067096</v>
+        <v>0.07567507739098654</v>
       </c>
       <c r="F5">
-        <v>5.744517517724985</v>
+        <v>3.718791111144217</v>
       </c>
       <c r="G5">
-        <v>0.3785024831182175</v>
+        <v>0.3059216454000824</v>
       </c>
       <c r="H5">
-        <v>0.000471144209041548</v>
+        <v>0.0007951626940993069</v>
       </c>
       <c r="I5">
-        <v>0.000283621603995088</v>
+        <v>0.0001900334479070524</v>
       </c>
       <c r="J5">
-        <v>0.06361041206877303</v>
+        <v>0.06772594059767445</v>
       </c>
       <c r="K5">
-        <v>1.321808983945475</v>
+        <v>1.462582931526568</v>
       </c>
       <c r="L5">
-        <v>0.2059085264902329</v>
+        <v>0.04264696958854129</v>
       </c>
       <c r="M5">
-        <v>0.1607475847839628</v>
+        <v>0.07562904023942302</v>
       </c>
       <c r="N5">
-        <v>0.02840715315832902</v>
+        <v>0.01556638209947068</v>
       </c>
       <c r="O5">
-        <v>1.045237719406698E-06</v>
+        <v>1.149254024790049E-06</v>
       </c>
       <c r="P5">
-        <v>0.001436019745780124</v>
+        <v>0.002516035467795301</v>
       </c>
       <c r="Q5">
-        <v>0.002600770136701227</v>
+        <v>0.002733379680740066</v>
       </c>
       <c r="R5">
-        <v>0.002743114216160785</v>
+        <v>0.002797253966459998</v>
       </c>
       <c r="S5">
-        <v>0.01952532268746487</v>
+        <v>0.02129159729672883</v>
       </c>
       <c r="T5">
-        <v>7.344565587264007E-09</v>
+        <v>6.103053087987278E-09</v>
       </c>
       <c r="U5">
-        <v>2.900468555264794E-06</v>
+        <v>3.374060996404466E-06</v>
       </c>
       <c r="V5">
-        <v>0.1277338087634763</v>
+        <v>0.05744126286617847</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -818,67 +818,67 @@
         <v>25</v>
       </c>
       <c r="B6">
-        <v>0.002818221950202145</v>
+        <v>0.005136090472990991</v>
       </c>
       <c r="C6">
-        <v>0.825182215515741</v>
+        <v>1.70116044094871</v>
       </c>
       <c r="D6">
-        <v>0.04866138801049451</v>
+        <v>0.08435702023067994</v>
       </c>
       <c r="E6">
-        <v>0.06077206892642985</v>
+        <v>0.1107906690747557</v>
       </c>
       <c r="F6">
-        <v>3.888002759892805</v>
+        <v>5.436466919093481</v>
       </c>
       <c r="G6">
-        <v>0.2028633250214361</v>
+        <v>0.4513670394486844</v>
       </c>
       <c r="H6">
-        <v>0.0003708441801304528</v>
+        <v>0.000833942016943935</v>
       </c>
       <c r="I6">
-        <v>0.0002119009178916603</v>
+        <v>0.0002047344632426096</v>
       </c>
       <c r="J6">
-        <v>0.04389101946029574</v>
+        <v>0.08416753873276021</v>
       </c>
       <c r="K6">
-        <v>0.8864557046313661</v>
+        <v>1.890933573658747</v>
       </c>
       <c r="L6">
-        <v>0.1589854459433432</v>
+        <v>0.05036291804505987</v>
       </c>
       <c r="M6">
-        <v>0.1147074122328707</v>
+        <v>0.1839727914723226</v>
       </c>
       <c r="N6">
-        <v>0.02042903747751751</v>
+        <v>0.02199159834034233</v>
       </c>
       <c r="O6">
-        <v>1.141032757128307E-06</v>
+        <v>8.827786542256732E-07</v>
       </c>
       <c r="P6">
-        <v>0.0010762370217771</v>
+        <v>0.003063115433498082</v>
       </c>
       <c r="Q6">
-        <v>0.001804046866884351</v>
+        <v>0.003987861003135543</v>
       </c>
       <c r="R6">
-        <v>0.001881717203460302</v>
+        <v>0.004131581807415125</v>
       </c>
       <c r="S6">
-        <v>0.02223195817890325</v>
+        <v>0.01354260148368089</v>
       </c>
       <c r="T6">
-        <v>4.502260294689553E-09</v>
+        <v>8.708565242940111E-09</v>
       </c>
       <c r="U6">
-        <v>1.842856163018813E-06</v>
+        <v>4.249121502930794E-06</v>
       </c>
       <c r="V6">
-        <v>0.06425444777518828</v>
+        <v>0.1113728225514604</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -886,67 +886,67 @@
         <v>26</v>
       </c>
       <c r="B7">
-        <v>0.0005781492454882734</v>
+        <v>0.0005781492426853665</v>
       </c>
       <c r="C7">
-        <v>0.2026360652083256</v>
+        <v>0.2026360653104243</v>
       </c>
       <c r="D7">
-        <v>0.006015987160695681</v>
+        <v>0.006015986912217879</v>
       </c>
       <c r="E7">
-        <v>0.007915604629277595</v>
+        <v>0.007915604310731645</v>
       </c>
       <c r="F7">
-        <v>0.5583825484015319</v>
+        <v>0.5583825223940457</v>
       </c>
       <c r="G7">
-        <v>0.09515669659362624</v>
+        <v>0.09515669665830574</v>
       </c>
       <c r="H7">
-        <v>5.070391807029875E-05</v>
+        <v>5.070391779006241E-05</v>
       </c>
       <c r="I7">
-        <v>6.930443873941658E-06</v>
+        <v>6.930443877809938E-06</v>
       </c>
       <c r="J7">
-        <v>0.009045009629546937</v>
+        <v>0.009045009649851813</v>
       </c>
       <c r="K7">
-        <v>0.1331272557118119</v>
+        <v>0.1331272517842481</v>
       </c>
       <c r="L7">
-        <v>0.01183923025326813</v>
+        <v>0.01183923022386342</v>
       </c>
       <c r="M7">
-        <v>0.006223448978987104</v>
+        <v>0.006223449175478697</v>
       </c>
       <c r="N7">
-        <v>0.004885585167376336</v>
+        <v>0.004885585184842223</v>
       </c>
       <c r="O7">
-        <v>6.109224137233039E-08</v>
+        <v>6.109224133348839E-08</v>
       </c>
       <c r="P7">
-        <v>0.0002646728689565484</v>
+        <v>0.0002646728678642076</v>
       </c>
       <c r="Q7">
-        <v>0.0004351791453261924</v>
+        <v>0.0004351791453672003</v>
       </c>
       <c r="R7">
-        <v>0.0004624809679183753</v>
+        <v>0.0004624809681352385</v>
       </c>
       <c r="S7">
-        <v>0.002271537476676556</v>
+        <v>0.002271537476411456</v>
       </c>
       <c r="T7">
-        <v>8.503408591725154E-10</v>
+        <v>8.503408599468337E-10</v>
       </c>
       <c r="U7">
-        <v>4.202994992347296E-07</v>
+        <v>4.202994978145868E-07</v>
       </c>
       <c r="V7">
-        <v>0.03483694571676071</v>
+        <v>0.03483694575232352</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -954,67 +954,67 @@
         <v>27</v>
       </c>
       <c r="B8">
-        <v>0.0005142141040787517</v>
+        <v>0.0005142141027116665</v>
       </c>
       <c r="C8">
-        <v>0.1468234755464681</v>
+        <v>0.1468234752796564</v>
       </c>
       <c r="D8">
-        <v>0.004967089376620921</v>
+        <v>0.004967089276457261</v>
       </c>
       <c r="E8">
-        <v>0.006680156551654553</v>
+        <v>0.00668015642272304</v>
       </c>
       <c r="F8">
-        <v>0.4259403347399095</v>
+        <v>0.4259403249375295</v>
       </c>
       <c r="G8">
-        <v>0.08101698221945042</v>
+        <v>0.08101698215719084</v>
       </c>
       <c r="H8">
-        <v>4.24184188328878E-05</v>
+        <v>4.241841862176501E-05</v>
       </c>
       <c r="I8">
-        <v>6.119401270793244E-06</v>
+        <v>6.119401264841516E-06</v>
       </c>
       <c r="J8">
-        <v>0.006936707128272446</v>
+        <v>0.006936707035939346</v>
       </c>
       <c r="K8">
-        <v>0.1224556799948617</v>
+        <v>0.1224556784345777</v>
       </c>
       <c r="L8">
-        <v>0.007252575791027449</v>
+        <v>0.007252575735192031</v>
       </c>
       <c r="M8">
-        <v>0.01530564066135924</v>
+        <v>0.01530564100299745</v>
       </c>
       <c r="N8">
-        <v>0.0022883023234866</v>
+        <v>0.002288302320334478</v>
       </c>
       <c r="O8">
-        <v>3.214693328810746E-08</v>
+        <v>3.214693323880788E-08</v>
       </c>
       <c r="P8">
-        <v>0.0002243250457530255</v>
+        <v>0.0002243250451246979</v>
       </c>
       <c r="Q8">
-        <v>0.0004438420152486869</v>
+        <v>0.0004438420158157067</v>
       </c>
       <c r="R8">
-        <v>0.000478534809738122</v>
+        <v>0.0004785348102994414</v>
       </c>
       <c r="S8">
-        <v>0.001755203866366144</v>
+        <v>0.001755203864357067</v>
       </c>
       <c r="T8">
-        <v>7.551334555788651E-10</v>
+        <v>7.55133457310695E-10</v>
       </c>
       <c r="U8">
-        <v>3.325322813212666E-07</v>
+        <v>3.325322800122735E-07</v>
       </c>
       <c r="V8">
-        <v>0.03133095948681032</v>
+        <v>0.03133095947467988</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -1022,67 +1022,67 @@
         <v>28</v>
       </c>
       <c r="B9">
-        <v>6.700317244481533E-06</v>
+        <v>6.700317213379794E-06</v>
       </c>
       <c r="C9">
-        <v>0.002030465239052716</v>
+        <v>0.002030465233637712</v>
       </c>
       <c r="D9">
-        <v>6.742453501036744E-05</v>
+        <v>6.742453353728148E-05</v>
       </c>
       <c r="E9">
-        <v>8.951436422096941E-05</v>
+        <v>8.951436231773329E-05</v>
       </c>
       <c r="F9">
-        <v>0.006561236093566417</v>
+        <v>0.006561235946916553</v>
       </c>
       <c r="G9">
-        <v>0.0009081999601377162</v>
+        <v>0.0009081999587447116</v>
       </c>
       <c r="H9">
-        <v>7.407663514036616E-07</v>
+        <v>7.407663486193835E-07</v>
       </c>
       <c r="I9">
-        <v>2.789308723539725E-07</v>
+        <v>2.789308721139515E-07</v>
       </c>
       <c r="J9">
-        <v>8.986618520310856E-05</v>
+        <v>8.986618378972741E-05</v>
       </c>
       <c r="K9">
-        <v>0.001906933209230977</v>
+        <v>0.00190693318648175</v>
       </c>
       <c r="L9">
-        <v>0.000154917790710448</v>
+        <v>0.0001549177900959045</v>
       </c>
       <c r="M9">
-        <v>0.0007143758260578662</v>
+        <v>0.0007143758259281868</v>
       </c>
       <c r="N9">
-        <v>0.0006225583484257207</v>
+        <v>0.0006225583481733938</v>
       </c>
       <c r="O9">
-        <v>8.261620221749458E-10</v>
+        <v>8.261620202945394E-10</v>
       </c>
       <c r="P9">
-        <v>3.365580197942084E-06</v>
+        <v>3.365580182704953E-06</v>
       </c>
       <c r="Q9">
-        <v>5.301223705439608E-06</v>
+        <v>5.301223686629886E-06</v>
       </c>
       <c r="R9">
-        <v>5.624321393727261E-06</v>
+        <v>5.62432137359436E-06</v>
       </c>
       <c r="S9">
-        <v>3.093410036474578E-05</v>
+        <v>3.093410033600188E-05</v>
       </c>
       <c r="T9">
-        <v>1.479547908456784E-11</v>
+        <v>1.479547905430438E-11</v>
       </c>
       <c r="U9">
-        <v>4.807741526619126E-09</v>
+        <v>4.807741502052848E-09</v>
       </c>
       <c r="V9">
-        <v>0.0004624424335687598</v>
+        <v>0.0004624424330911274</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1090,67 +1090,67 @@
         <v>29</v>
       </c>
       <c r="B10">
-        <v>9.422588097431181E-05</v>
+        <v>9.422588096255795E-05</v>
       </c>
       <c r="C10">
-        <v>0.03243189528361305</v>
+        <v>0.03243189526997198</v>
       </c>
       <c r="D10">
-        <v>0.001106786024621425</v>
+        <v>0.00110678603183899</v>
       </c>
       <c r="E10">
-        <v>0.001427523010943951</v>
+        <v>0.001427523019697037</v>
       </c>
       <c r="F10">
-        <v>0.1025072589451671</v>
+        <v>0.1025072591238782</v>
       </c>
       <c r="G10">
-        <v>0.01432989094357924</v>
+        <v>0.01432989093896514</v>
       </c>
       <c r="H10">
-        <v>9.10999299369395E-06</v>
+        <v>9.109993014683579E-06</v>
       </c>
       <c r="I10">
-        <v>1.073992527770054E-06</v>
+        <v>1.073992527196308E-06</v>
       </c>
       <c r="J10">
-        <v>0.001538819919893362</v>
+        <v>0.001538819883490136</v>
       </c>
       <c r="K10">
-        <v>0.02373957299738354</v>
+        <v>0.02373957309752509</v>
       </c>
       <c r="L10">
-        <v>0.002051208603041604</v>
+        <v>0.002051208598688562</v>
       </c>
       <c r="M10">
-        <v>0.0007037849240661172</v>
+        <v>0.000703784897674037</v>
       </c>
       <c r="N10">
-        <v>0.0005549222381191151</v>
+        <v>0.0005549222369886393</v>
       </c>
       <c r="O10">
-        <v>8.269592870192747E-09</v>
+        <v>8.269592868305048E-09</v>
       </c>
       <c r="P10">
-        <v>4.537142467831288E-05</v>
+        <v>4.537142459649598E-05</v>
       </c>
       <c r="Q10">
-        <v>7.160943081088078E-05</v>
+        <v>7.160943048069818E-05</v>
       </c>
       <c r="R10">
-        <v>7.670196173466388E-05</v>
+        <v>7.670196139819002E-05</v>
       </c>
       <c r="S10">
-        <v>0.0003679586705463196</v>
+        <v>0.0003679586707410118</v>
       </c>
       <c r="T10">
-        <v>1.351402140216372E-10</v>
+        <v>1.351402137252946E-10</v>
       </c>
       <c r="U10">
-        <v>7.003126410522191E-08</v>
+        <v>7.003126394311233E-08</v>
       </c>
       <c r="V10">
-        <v>0.005007019329361081</v>
+        <v>0.005007019325776086</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1158,67 +1158,67 @@
         <v>30</v>
       </c>
       <c r="B11">
-        <v>-0.002044196449514276</v>
+        <v>-0.002044196349808889</v>
       </c>
       <c r="C11">
-        <v>-2.481352500439995</v>
+        <v>-2.48135249032756</v>
       </c>
       <c r="D11">
-        <v>-0.04186987250543076</v>
+        <v>-0.04186986662215726</v>
       </c>
       <c r="E11">
-        <v>-0.05713112220240642</v>
+        <v>-0.05713111463381264</v>
       </c>
       <c r="F11">
-        <v>-2.287035512691386</v>
+        <v>-2.287034954699321</v>
       </c>
       <c r="G11">
-        <v>-0.2480134811002595</v>
+        <v>-0.2480134785690571</v>
       </c>
       <c r="H11">
-        <v>-0.0006770049407618106</v>
+        <v>-0.0006770049319318957</v>
       </c>
       <c r="I11">
-        <v>-5.377657277939428E-05</v>
+        <v>-5.377657233807835E-05</v>
       </c>
       <c r="J11">
-        <v>-0.2721480290366566</v>
+        <v>-0.2721480269689626</v>
       </c>
       <c r="K11">
-        <v>-0.9818856290306637</v>
+        <v>-0.9818855389942376</v>
       </c>
       <c r="L11">
-        <v>-0.03679645601191286</v>
+        <v>-0.03679645555472368</v>
       </c>
       <c r="M11">
-        <v>-0.009861759078952686</v>
+        <v>-0.009861754178577807</v>
       </c>
       <c r="N11">
-        <v>-0.0389540020382635</v>
+        <v>-0.0389540015093417</v>
       </c>
       <c r="O11">
-        <v>-6.581680770098151E-07</v>
+        <v>-6.581680723042785E-07</v>
       </c>
       <c r="P11">
-        <v>-0.0009343549746506833</v>
+        <v>-0.0009343549336100093</v>
       </c>
       <c r="Q11">
-        <v>-0.00183773651242395</v>
+        <v>-0.001837736448480481</v>
       </c>
       <c r="R11">
-        <v>-0.001970886470752665</v>
+        <v>-0.001970886405068049</v>
       </c>
       <c r="S11">
-        <v>-0.008419273778011134</v>
+        <v>-0.008419273724040848</v>
       </c>
       <c r="T11">
-        <v>-8.238230010892319E-09</v>
+        <v>-8.23822989231924E-09</v>
       </c>
       <c r="U11">
-        <v>-4.038304922344842E-06</v>
+        <v>-4.038304859599133E-06</v>
       </c>
       <c r="V11">
-        <v>-0.1021460404101008</v>
+        <v>-0.1021460394984421</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1226,67 +1226,67 @@
         <v>31</v>
       </c>
       <c r="B12">
-        <v>-0.00204419646067601</v>
+        <v>-0.002044196345923233</v>
       </c>
       <c r="C12">
-        <v>-2.481352500235387</v>
+        <v>-2.481352491128744</v>
       </c>
       <c r="D12">
-        <v>-0.04186987369580859</v>
+        <v>-0.04186986592582911</v>
       </c>
       <c r="E12">
-        <v>-0.05713112372706929</v>
+        <v>-0.05713111372101499</v>
       </c>
       <c r="F12">
-        <v>-2.287035624174689</v>
+        <v>-2.287034902438124</v>
       </c>
       <c r="G12">
-        <v>-0.2480134809065868</v>
+        <v>-0.2480134788546212</v>
       </c>
       <c r="H12">
-        <v>-0.0006770049422723541</v>
+        <v>-0.0006770049315191963</v>
       </c>
       <c r="I12">
-        <v>-5.377657280490553E-05</v>
+        <v>-5.377657236395308E-05</v>
       </c>
       <c r="J12">
-        <v>-0.2721480290154446</v>
+        <v>-0.2721480276909837</v>
       </c>
       <c r="K12">
-        <v>-0.9818856473578121</v>
+        <v>-0.9818855285308774</v>
       </c>
       <c r="L12">
-        <v>-0.03679645601332019</v>
+        <v>-0.03679645564434684</v>
       </c>
       <c r="M12">
-        <v>-0.009861759867637661</v>
+        <v>-0.00986175533304365</v>
       </c>
       <c r="N12">
-        <v>-0.03895400207059107</v>
+        <v>-0.03895400162301977</v>
       </c>
       <c r="O12">
-        <v>-6.58168076792164E-07</v>
+        <v>-6.581680726821724E-07</v>
       </c>
       <c r="P12">
-        <v>-0.0009343549772728248</v>
+        <v>-0.0009343549347620122</v>
       </c>
       <c r="Q12">
-        <v>-0.001837736504661061</v>
+        <v>-0.001837736456216982</v>
       </c>
       <c r="R12">
-        <v>-0.001970886462469479</v>
+        <v>-0.00197088641274709</v>
       </c>
       <c r="S12">
-        <v>-0.008419273782371471</v>
+        <v>-0.008419273726854757</v>
       </c>
       <c r="T12">
-        <v>-8.238230021885063E-09</v>
+        <v>-8.238229903527314E-09</v>
       </c>
       <c r="U12">
-        <v>-4.038304927909582E-06</v>
+        <v>-4.038304861095362E-06</v>
       </c>
       <c r="V12">
-        <v>-0.1021460402981056</v>
+        <v>-0.1021460396188791</v>
       </c>
     </row>
     <row r="13" spans="1:22">
